--- a/artifacts/recipes/new_data/allrecipescom/vegan/vegan_breakfast-and-brunch.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/vegan/vegan_breakfast-and-brunch.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699656339-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Vegan Breakfast and Brunch</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699656343-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CH5xazEi9SaivX0G62b0Bplu7YM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/50189-9df8c3b7097d4d11ab61946577a3384e.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24015/pumpkin-flax-quickbread/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Pumpkin Flax Quickbread</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n1 9x5-inch loaf"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons flax seed meal\n\n\n6 tablespoons water\n\n\n1 ½ cups sugar\n\n\n1 cup canned pumpkin puree\n\n\n½ cup applesauce\n\n\n1 ⅓ cups all-purpose flour\n\n\n⅓ cup whole wheat pastry flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon ground cinnamon\n\n\n¾ teaspoon salt\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon ground cloves"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons flax seed meal\n\n\n6 tablespoons water\n\n\n1 ½ cups sugar\n\n\n1 cup canned pumpkin puree\n\n\n½ cup applesauce\n\n\n1 ⅓ cups all-purpose flour\n\n\n⅓ cup whole wheat pastry flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon ground cinnamon\n\n\n¾ teaspoon salt\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon ground cloves'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease one 9x5 inch loaf pan."},{"recipe_directions":"Whisk together flax seed meal and water. Mix in sugar, pumpkin and apple sauce."},{"recipe_directions":"In a large bowl, stir together all-purpose flour, whole wheat flour, baking soda, cinnamon, salt, baking powder, nutmeg, and cloves. Add flour mixture to pumpkin mixture; stir until smooth. Pour batter into prepared pan."},{"recipe_directions":"Bake in preheated oven for 65 to 70 minutes, until a toothpick inserted into center of the loaf comes out clean."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n1g \nFat\n\n\n41g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699656347-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/P8R-YrNKaLRbnShJIImjbOea2tw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(621x0:623x2):format(webp)/7557121-308dbc458c1e43aea36a731647174d20.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/80677/worlds-best-vegan-pancakes/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>World's Best Vegan Pancakes</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n2 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n22 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups self-rising flour\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon custard powder\n\n\n2 cups soy milk"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups self-rising flour\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon custard powder\n\n\n2 cups soy milk'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, stir together the flour, sugar and custard powder. Mix in the soy milk with a whisk so there are no lumps."},{"recipe_directions":"Heat a griddle over medium heat, and coat with nonstick cooking spray. Spoon batter onto the surface, and cook until bubbles begin to form on the surface. Flip with a spatula and cook on the other side until golden."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"528\nCalories\n\n\n3g \nFat\n\n\n106g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699656350-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -332,59 +665,55 @@
 Daniel Fast Apple Valley Breakfast</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269423/daniel-fast-apple-valley-breakfast/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Daniel Fast Apple Valley Breakfast</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12 ounces soy chorizo (such as Trader Joe's®)\n\n\n2  Fuji apples, chopped into bite-sized pieces\n\n\n½ (11 ounce) package soy imitation white Mexican soft cheese"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "12 ounces soy chorizo (such as Trader Joe's®)\n\n\n2  Fuji apples, chopped into bite-sized pieces\n\n\n½ (11 ounce) package soy imitation white Mexican soft cheese"}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a skillet over medium heat. Add soy chorizo and cook until browned, about 5 minutes. Add apples and mix well; cook until softened, about 3 minutes."},{"recipe_directions":"Reduce heat to medium-low. Stir apple mixture and grate imitation cheese on top. Fold in gently as it melts."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"372\nCalories\n\n\n22g \nFat\n\n\n24g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699656354-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/efsDvKiEORgFWNkIIrGz1GPpp_s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(754x0:756x2):format(webp)/7893483-00759a25377c43b9acbc8da7d448f02e.jpg"
@@ -397,59 +726,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279556/country-fried-potatoes-with-hatch-chiles/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Country Fried Potatoes with Hatch Chiles</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  Hatch chile peppers\n\n\n2 tablespoons vegetable oil\n\n\n1 large russet potato\n\n\n½ medium onion, sliced\n\n\n1 pinch seasoned salt (such as LAWRY'S®), or to taste\n\n\n  freshly cracked black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2  Hatch chile peppers\n\n\n2 tablespoons vegetable oil\n\n\n1 large russet potato\n\n\n½ medium onion, sliced\n\n\n1 pinch seasoned salt (such as LAWRY'S®), or to taste\n\n\n  freshly cracked black pepper to taste"}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place Hatch chiles directly on the grates of a gas stove over medium heat. Cook, flipping with tongs occasionally, until blackened and charred, about 5 minutes. Place in a sealed plastic bag and allow to cool, 7 to 8 minutes. Peel off charred skins, remove seeds, and slice chiles."},{"recipe_directions":"Slice potato using a mandoline."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat until shimmering. Add potato slices and fry undisturbed until starting to brown and soften, 8 to 12 minutes. Add onion slices and chiles. Season with seasoned salt and black pepper. Stir to combine. Cook until onions are translucent and potatoes are fully softened and browned on the second side, 5 to 8 minutes."},{"recipe_directions":"Adjust spice level by adding more Hatch chiles."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"305\nCalories\n\n\n14g \nFat\n\n\n41g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699656357-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jokQ9hbIdKQrVeE1s0G35PGn6Sg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/5382785-8660bd96c3ea41fe9bac622d6e5db16b.jpg"
@@ -462,59 +787,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264546/vegan-overnight-oats-with-chia-seeds-and-fruit/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Vegan Overnight Oats with Chia Seeds and Fruit</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 10 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅓ cups almond milk\n\n\n2  ripe bananas, mashed\n\n\n1 ¼ cups rolled oats\n\n\n¾ cup water\n\n\n4 tablespoons chia seeds\n\n\n½ teaspoon ground cinnamon\n\n\n¼ cup fresh blueberries\n\n\n¼ cup fresh blackberries\n\n\n1  nectarine, peeled and diced"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅓ cups almond milk\n\n\n2  ripe bananas, mashed\n\n\n1 ¼ cups rolled oats\n\n\n¾ cup water\n\n\n4 tablespoons chia seeds\n\n\n½ teaspoon ground cinnamon\n\n\n¼ cup fresh blueberries\n\n\n¼ cup fresh blackberries\n\n\n1  nectarine, peeled and diced'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond milk, bananas, oats, water, chia seeds, and cinnamon in a jar or airtight container; stir together. Cover and refrigerate, 8 hours to overnight."},{"recipe_directions":"Place oat mixture in a saucepan over low heat and gently cook for about 5 minutes. Divide between 2 bowls and top with blueberries, blackberries, and nectarine."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"492\nCalories\n\n\n12g \nFat\n\n\n88g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699656360-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Tj5chkx6kJBFh4q7d91hUWjqiNY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4379306-41aa01c9a50c4125878274398338e730.jpg"
@@ -527,59 +848,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256561/carrot-banana-smoothie/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Carrot-Banana Smoothie</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  banana\n\n\n1 cup chopped cucumbers\n\n\n⅔ cup chopped red bell pepper\n\n\n½ cup ruby-red grapefruit juice\n\n\n½ cup chopped carrots\n\n\n  ice cubes"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  banana\n\n\n1 cup chopped cucumbers\n\n\n⅔ cup chopped red bell pepper\n\n\n½ cup ruby-red grapefruit juice\n\n\n½ cup chopped carrots\n\n\n  ice cubes'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine banana, cucumbers, red bell pepper, grapefruit juice, and carrots in a blender; blend until smooth."},{"recipe_directions":"Fill a glass with ice and pour smoothie over ice."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"115\nCalories\n\n\n1g \nFat\n\n\n28g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699656363-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Qdu-2GAaeRndzz9eTaAyyobF228=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/9163699-902ec2b1b28b4d388476c2f86476c1dd.jpg"
@@ -592,59 +909,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276674/oatmeal-breakfast-muffins/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Oatmeal Breakfast Muffins</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n18 \n\n\nYield:\n18 muffins"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n1 cup oatmeal\n\n\n1 cup soy milk\n\n\n1 cup whole wheat flour\n\n\n½ cup brown sugar\n\n\n⅓ cup oat bran\n\n\n¼ cup ground flax seed\n\n\n1 tablespoon baking powder\n\n\n½ teaspoon salt\n\n\n3  ripe bananas, mashed\n\n\n½ cup applesauce\n\n\n⅓ cup egg substitute\n\n\n¾ cup raisins\n\n\n¾ cup chopped walnuts\n\n\n¾ cup chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 cup oatmeal\n\n\n1 cup soy milk\n\n\n1 cup whole wheat flour\n\n\n½ cup brown sugar\n\n\n⅓ cup oat bran\n\n\n¼ cup ground flax seed\n\n\n1 tablespoon baking powder\n\n\n½ teaspoon salt\n\n\n3  ripe bananas, mashed\n\n\n½ cup applesauce\n\n\n⅓ cup egg substitute\n\n\n¾ cup raisins\n\n\n¾ cup chopped walnuts\n\n\n¾ cup chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Mist 18 muffin cups with cooking spray."},{"recipe_directions":"Combine oatmeal and milk in a large bowl and set aside."},{"recipe_directions":"Stir flour, brown sugar, oat bran, ground flax seed, baking powder, and salt together in a separate bowl."},{"recipe_directions":"Combine bananas, applesauce, and egg substitute in another bowl. Stir into oatmeal mixture. Stir in flour mixture, followed by raisins, walnuts, and chocolate chips. Divide batter evenly between the prepared muffin cups."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center of a muffin comes out clean, 12 to 15 minutes."},{"recipe_directions":"You can use non-fat milk instead of soy, honey instead of brown sugar, and 1 egg instead of egg substitute, if preferred."},{"recipe_directions":"I live in a high altitude area and have to bake mine for 15 to 17 minutes, but adjust as necessary."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"192\nCalories\n\n\n7g \nFat\n\n\n32g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699656366-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hlHGS_SPBrf8YJL9DQ-ifQ_9LhE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/364473-3ab2529fcbf146c282bf3d22715bae5f.jpg"
@@ -657,59 +970,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/148968/cranberry-orange-spiced-oatmeal/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Cranberry-Orange Spiced Oatmeal</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n2 mins\n\n\nTotal Time:\n7 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup old-fashioned rolled oats\n\n\n½ teaspoon ground cinnamon, or to taste\n\n\n¼ cup dried cranberries\n\n\n½ cup frozen blueberries\n\n\n¼ teaspoon ground turmeric (Optional)\n\n\n1 pinch ground ginger (Optional)\n\n\n1 cup water\n\n\n¼ cup orange juice, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup old-fashioned rolled oats\n\n\n½ teaspoon ground cinnamon, or to taste\n\n\n¼ cup dried cranberries\n\n\n½ cup frozen blueberries\n\n\n¼ teaspoon ground turmeric (Optional)\n\n\n1 pinch ground ginger (Optional)\n\n\n1 cup water\n\n\n¼ cup orange juice, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the rolled oats, cinnamon, cranberries, and blueberries in a microwave safe bowl. Add the turmeric and ginger, if desired. Pour in the water, and stir to mix ingredients. Cook on High until water is absorbed, about 2 minutes. Stir in orange juice to desired consistency."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"398\nCalories\n\n\n5g \nFat\n\n\n85g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699656369-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MxuU-vMiCViOgsG88PJvSnmM6oo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1113306-0be8b2181cbf41cdb17f4625c406f3cd.jpg"
@@ -722,59 +1031,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234502/vegan-waffles/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Vegan Waffles</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 waffles"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 tablespoons water\n\n\n2 tablespoons flax seed meal\n\n\n1 cup rolled oats\n\n\n1 ¾ cups soy milk\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour\n\n\n2 tablespoons canola oil\n\n\n4 teaspoons baking powder\n\n\n1 teaspoon vanilla extract\n\n\n1 tablespoon agave nectar\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 tablespoons water\n\n\n2 tablespoons flax seed meal\n\n\n1 cup rolled oats\n\n\n1 ¾ cups soy milk\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour\n\n\n2 tablespoons canola oil\n\n\n4 teaspoons baking powder\n\n\n1 teaspoon vanilla extract\n\n\n1 tablespoon agave nectar\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Stir water and flax seed meal together in a bowl."},{"recipe_directions":"Blend oats in a blender into a flour-like consistency. Add flax seed mixture, soy milk, all-purpose flour, whole wheat flour, canola oil, baking powder, vanilla extract, agave nectar, and salt to oats; blend until batter is just mixed."},{"recipe_directions":"Ladle 1/2 cup batter into preheated waffle iron. Cook the waffles according to manufacturer's instructions until golden and crisp, about 5 minutes."},{"recipe_directions":"I melted 2 tablespoons spreadable fruit (fresh would work too) with 1 tablespoon agave nectar in a small saucepan. This, plus a sprinkle of powdered sugar, made it taste like it should not be good for you."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"229\nCalories\n\n\n8g \nFat\n\n\n33g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699656372-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/89oPkVb4srSyJJUklliE9i8QH_E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/644020-cc1c66e956174276a293599817e8cba1.jpg"
@@ -787,59 +1092,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263268/breakfast-polenta-porridge/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Breakfast Polenta Porridge</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n2 cups almond milk\n\n\n¾ cup dry polenta\n\n\n¼ cup almond meal\n\n\n1 tablespoon brown sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 cup mixed berries, sliced\n\n\n2 pinches ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n2 cups almond milk\n\n\n¾ cup dry polenta\n\n\n¼ cup almond meal\n\n\n1 tablespoon brown sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 cup mixed berries, sliced\n\n\n2 pinches ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and almond milk to a boil in a medium saucepan. Add polenta and almond meal in a steady stream, whisking constantly to prevent lumps. Reduce heat to low and stir porridge frequently until thick, about 15 minutes. Stir in brown sugar and vanilla extract."},{"recipe_directions":"Ladle porridge into bowls and top with berries and a dash of cinnamon."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"},{"recipe_tags":"Polenta Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"465\nCalories\n\n\n15g \nFat\n\n\n72g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699656375-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-9YKKvgfzmJxSXHZNixDVH7-m2A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/283710-5815600a870b434285818db04452eab1.jpg"
@@ -850,59 +1151,55 @@
 French Toast Pan-Fried Tofu (Gluten Free)</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262359/french-toast-pan-fried-tofu-gluten-free/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>French Toast Pan-Fried Tofu (Gluten Free)</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n12 ounces of tofu"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) package extra-firm tofu, drained\n\n\n  salt to taste\n\n\n½ cup cornmeal\n\n\n  ground cinnamon, or more to taste\n\n\n  olive oil, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) package extra-firm tofu, drained\n\n\n  salt to taste\n\n\n½ cup cornmeal\n\n\n  ground cinnamon, or more to taste\n\n\n  olive oil, or more as needed'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Slice tofu into 1/8-inch-thick slices, laying pieces on a paper towel as you go. Season each side lightly with salt."},{"recipe_directions":"Place cornmeal in a shallow bowl; add a pinch of salt and cinnamon and stir."},{"recipe_directions":"Heat olive oil in a saucepan over medium-high heat."},{"recipe_directions":"Dip each side of the tofu slices in the cornmeal mixture; gently tap off excess. Place tofu in the hot saucepan and cook until golden brown and crisp, 2 to 3 minutes per side."},{"recipe_directions":"I've tried melting some butter with the olive oil for frying the tofu pieces, and this works well and adds additional flavor."},{"recipe_directions":"Salting the tofu is really key to the flavor, otherwise it is very bland."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"French Toast Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"201\nCalories\n\n\n12g \nFat\n\n\n16g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699656378-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DN71fWiB-EVWiZx6DAaraCyIhY8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/6580126-8537563f2ef14ba89e4028f14482ecda.jpg"
@@ -915,59 +1212,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261313/easy-vegan-banana-pancakes/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Easy Vegan Banana Pancakes</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n6 pancakes"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup blanched almond flour\n\n\n2 tablespoons baking powder\n\n\n1 tablespoon white sugar\n\n\n1 pinch salt\n\n\n1  banana, mashed\n\n\n½ cup almond milk\n\n\n2 tablespoons vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup blanched almond flour\n\n\n2 tablespoons baking powder\n\n\n1 tablespoon white sugar\n\n\n1 pinch salt\n\n\n1  banana, mashed\n\n\n½ cup almond milk\n\n\n2 tablespoons vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond flour, baking powder, sugar, and salt in a bowl; mix well. Stir in mashed banana, almond milk, and vegetable oil until well combined."},{"recipe_directions":"Heat a lightly oiled griddle over medium-high heat. Drop batter by large spoonfuls onto the griddle and cook until bubbles form and the edges are dry, 3 to 4 minutes. Flip and cook until browned on the other side, 2 to 3 minutes. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"},{"recipe_tags":"Banana Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"583\nCalories\n\n\n45g \nFat\n\n\n39g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699656381-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-xvg9mmySxI-GFTQWahyvl5DFGo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1038221-f8991751e74b4bcc8fc66ceb62459833.jpg"
@@ -980,59 +1273,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232401/peanut-butter-and-maple-oatmeal/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Peanut Butter and Maple Oatmeal</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup water\n\n\n¼ cup steel-cut oats (such as Trader Joe's® Quick Cook Oats)\n\n\n1 tablespoon natural peanut butter (such as Whole Foods 365 Organic Everyday Value®)\n\n\n1 tablespoon maple syrup\n\n\n½ teaspoon brown sugar"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "¾ cup water\n\n\n¼ cup steel-cut oats (such as Trader Joe's® Quick Cook Oats)\n\n\n1 tablespoon natural peanut butter (such as Whole Foods 365 Organic Everyday Value®)\n\n\n1 tablespoon maple syrup\n\n\n½ teaspoon brown sugar"}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water to a boil in a saucepan, stir steel cut oats into water, and reduce heat to medium-low. Cover and cook until oats are tender, 5 to 7 minutes, stirring occasionally. Remove from heat and let stand 1 minute."},{"recipe_directions":"Stir peanut butter, maple syrup, and brown sugar into oats."},{"recipe_directions":"Depending on the brand of peanut butter, the taste will obviously vary. I tried an all natural peanut butter from Trader Joe's(R) that I simply did not like. The 365(R) Whole Foods brand tastes much better in my opinion. You could also try adding some cinnamon if desired."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"304\nCalories\n\n\n11g \nFat\n\n\n46g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699656384-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sBb0XUv8RlzSo_YCxkGLcmgm-cE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/7465717-f467e1c46e9145fda4a5356a570040a4.jpg"
@@ -1045,59 +1334,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277757/vegan-tofu-eggs/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Vegan Tofu "Eggs"</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"olive oil cooking spray\n\n\n1 (16 ounce) package firm tofu, drained and patted dry\n\n\n1 tablespoon nutritional yeast\n\n\n½ teaspoon salt\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon ground turmeric\n\n\n2 tablespoons almond milk\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'olive oil cooking spray\n\n\n1 (16 ounce) package firm tofu, drained and patted dry\n\n\n1 tablespoon nutritional yeast\n\n\n½ teaspoon salt\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon ground turmeric\n\n\n2 tablespoons almond milk\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Generously spray a skillet with olive oil cooking spray and heat over medium heat. Add tofu, using your hands to crumble the block into smaller pieces; cook for 4 minutes."},{"recipe_directions":"Stir in nutritional yeast, 1/2 teaspoon salt, garlic powder, and turmeric. Cook until seasonings have been incorporated, breaking tofu apart with a spatula to desired consistency, about 1 minute. Stir in almond milk and cook until absorbed, about 2 minutes. Season with salt and pepper and serve warm."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"175\nCalories\n\n\n10g \nFat\n\n\n6g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699656387-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Z_HNql4EVZyzeQPTlOarcPEXLTc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/9000698-a3896e101c524fbd9cc2629309f1b7a0.jpg"
@@ -1108,59 +1393,55 @@
 Vegan Bread Machine Cinnamon Rolls</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/285271/vegan-bread-machine-cinnamon-rolls/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Vegan Bread Machine Cinnamon Rolls</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 40 mins\n\n\nServings:\n18 \n\n\nYield:\n18 rolls"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup warm almond milk\n\n\n¼ cup vegan margarine, melted\n\n\n½ cup white sugar\n\n\n1 teaspoon salt\n\n\n1 teaspoon vanilla extract\n\n\n5 cups all-purpose flour\n\n\n½ cup warm water\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon yeast"},{"recipe_ingredients":"½ cup brown sugar\n\n\n½ cup chopped walnuts, or more to taste\n\n\n1 ½ teaspoons ground cinnamon, or more to taste"},{"recipe_ingredients":"1 cup powdered sugar\n\n\n2 tablespoons almond milk\n\n\n1 tablespoon vegan margarine, melted"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup warm almond milk\n\n\n¼ cup vegan margarine, melted\n\n\n½ cup white sugar\n\n\n1 teaspoon salt\n\n\n1 teaspoon vanilla extract\n\n\n5 cups all-purpose flour\n\n\n½ cup warm water\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon yeast'}, {'recipe_ingredients': '½ cup brown sugar\n\n\n½ cup chopped walnuts, or more to taste\n\n\n1 ½ teaspoons ground cinnamon, or more to taste'}, {'recipe_ingredients': '1 cup powdered sugar\n\n\n2 tablespoons almond milk\n\n\n1 tablespoon vegan margarine, melted'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prepare dough: Place almond milk, melted vegan margarine, 1/2 cup sugar, salt, vanilla, and flour into a bread machine in the order listed. Start the Dough setting."},{"recipe_directions":"Mix warm water, 1 tablespoon sugar, and yeast in a glass measuring cup."},{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C) for 1 minute. Turn the oven off and immediately place the yeast mixture inside to proof for 15 minutes."},{"recipe_directions":"Add proofed yeast mixture to the bread machine and let the cycle finish, about 1 hour 45 more minutes."},{"recipe_directions":"Remove dough and roll into an 12x18-inch rectangle. Mix brown sugar, walnuts, and cinnamon for filling in a bowl; spread evenly over the dough. Starting at the long end of the rectangle, roll dough into a log; slice log into 1-inch wide pieces. Transfer to a greased baking pan with cut-sides up."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C) for 1 minute. Turn the oven off; immediately place the rolls inside along with an uncovered bowl of boiling water. Allow rolls to proof for 1 hour."},{"recipe_directions":"Remove rolls from the oven. Preheat to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake rolls in the preheated oven for 15 minutes."},{"recipe_directions":"Meanwhile, mix powdered sugar, almond milk, and melted vegan margarine for glaze in a bowl."},{"recipe_directions":"Remove rolls from the oven and spread glaze evenly over top."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Pastries"},{"recipe_tags":"Cinnamon Roll Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"257\nCalories\n\n\n6g \nFat\n\n\n47g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699656390-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nT_8oF5waCCgNiDPwwAfP3Lnja8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/6950247-0c4e36d49ce447f8bea7b5863abea017.jpg"
@@ -1173,59 +1454,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275521/strawberry-lime-cilantro-smoothie/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Strawberry-Lime-Cilantro Smoothie</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 smoothie"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup frozen strawberries, slightly thawed and chopped\n\n\n1  frozen banana, chopped\n\n\n½ cup unsweetened almond milk\n\n\n½ cup ice\n\n\n¼ cup chopped cilantro, leaves and stems, lightly packed\n\n\n1 tablespoon lime juice\n\n\n½ teaspoon stevia powder (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup frozen strawberries, slightly thawed and chopped\n\n\n1  frozen banana, chopped\n\n\n½ cup unsweetened almond milk\n\n\n½ cup ice\n\n\n¼ cup chopped cilantro, leaves and stems, lightly packed\n\n\n1 tablespoon lime juice\n\n\n½ teaspoon stevia powder (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine strawberries, banana, almond milk, ice, cilantro, lime juice, and stevia powder in a blender. Process until smooth, adding more almond milk or water for a smoother consistency."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"222\nCalories\n\n\n2g \nFat\n\n\n55g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699656393-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8TW01UNS0k3Ksa47UCb2Na-ChIM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1495x0:1497x2):format(webp)/6207727-897a0326159047fab3208db66203e141.jpg"
@@ -1238,59 +1515,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278384/vegan-breakfast-sausage/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Vegan Breakfast Sausage</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8 \n\n\nYield:\n16 sausage patties"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup texturized vegetable protein (TVP)\n\n\n1 cup warm vegetable broth\n\n\n1 tablespoon flaxseed meal\n\n\n¾ cup quick-cooking oats\n\n\n2 tablespoons nutritional yeast\n\n\n1 tablespoon all-purpose flour\n\n\n1 tablespoon vital wheat gluten\n\n\n2 teaspoons dried sage\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon fennel seeds\n\n\n1 teaspoon garlic powder\n\n\n½ teaspoon ground thyme\n\n\n½ teaspoon smoked paprika\n\n\n½ teaspoon salt, or to taste\n\n\n¼ teaspoon cayenne pepper\n\n\n¼ cup water\n\n\n2 tablespoons soy sauce\n\n\n1 tablespoon maple syrup\n\n\n1 tablespoon cooking oil"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup texturized vegetable protein (TVP)\n\n\n1 cup warm vegetable broth\n\n\n1 tablespoon flaxseed meal\n\n\n¾ cup quick-cooking oats\n\n\n2 tablespoons nutritional yeast\n\n\n1 tablespoon all-purpose flour\n\n\n1 tablespoon vital wheat gluten\n\n\n2 teaspoons dried sage\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon fennel seeds\n\n\n1 teaspoon garlic powder\n\n\n½ teaspoon ground thyme\n\n\n½ teaspoon smoked paprika\n\n\n½ teaspoon salt, or to taste\n\n\n¼ teaspoon cayenne pepper\n\n\n¼ cup water\n\n\n2 tablespoons soy sauce\n\n\n1 tablespoon maple syrup\n\n\n1 tablespoon cooking oil'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix TVP, vegetable broth, and flaxseed meal together in a large mixing bowl and let sit for 5 minutes. Add oats, yeast, flour, gluten, sage, black pepper, fennel seeds, garlic powder, thyme, smoked paprika, salt, and cayenne. Mix until well blended."},{"recipe_directions":"Combine water, soy sauce, and maple syrup in a separate container and mix well. Add to the TVP mixture and combine into a slightly crumbly dough. Mix well to activate gluten and let dough sit for 5 minutes; dough should stiffen slightly and become less crumbly."},{"recipe_directions":"Form into tablespoon-size balls and flatten slightly."},{"recipe_directions":"Heat oil in a cast iron or nonstick frying pan over medium heat. Cook sausage patties in the hot oil until golden brown, about 5 minutes on each side."},{"recipe_directions":"You can use warm water instead of vegetable broth, any type of flour that you prefer, and Bragg(R) Amino Acids instead of soy sauce."},{"recipe_directions":"If dough is too wet, sprinkle slightly more flour (or oats/breadcrumbs) and mix again, adjust and mix as needed until dough will mostly still stick together in tablespoon-size balls."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"126\nCalories\n\n\n3g \nFat\n\n\n12g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699656396-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vUPdDBP3-ih2BBWv0QCk0pcNGn8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6628385-2000-2c6d56b8b4c64bc488d33e4cf9dd8598.jpg"
@@ -1302,59 +1575,55 @@
 5 Fantastic Vegan Biscuit Recipes</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/vegan-biscuits/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>5 Fantastic Vegan Biscuit Recipes</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rich and flaky biscuits don't have to be off limits just because you're vegan. These five plant-based biscuit recipes prove that with a little technique and the right ingredient swaps, you can easily create fluffy and buttery vegan biscuits. So whether you eat them as a side or smother them in vegan gravy for breakfast, it's time to get baking. Perhaps your new favorite biscuits just might be vegan!"},{"recipe_directions":"It doesn't get much easier than these drop vegan biscuits. Simply mix up your dough, drop some spoonfuls on your baking sheet, and it's time to hit the oven! Reviewer Rae Clark says, \"Excellent, easy, quick. They bake up light fluffy and melt-in-your-mouth tasty.\""},{"recipe_directions":"Coconut oil acts as the fat to create irresistibly flaky layers in these vegan biscuits. Be sure to buy a refined coconut oil. Otherwise, your biscuits will have a distinct coconut-y flavor."},{"recipe_directions":"Whole-wheat baked goods can be heavy sometimes, but these light biscuits are anything but dense. Serve up with some plant-based butter and homemade jam."},{"recipe_directions":"\"Vegan\" and \"buttery\" may seem like they don't belong in the same sentence, but this recipe will change your mind. By using high-quality vegan butter (we like the Earth Balance brand) you can infuse these biscuits with plenty of flavor and perfect texture."},{"recipe_directions":"You'll never guess there's no dairy in these decadent tasting vegan biscuits. Vegan butter and coconut oil pair up to create a delightfully fluffy texture."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699656399-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FfTj2hKqMeKw2cLGJh4ocfu3UvE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5401910-a91382f0b4eb4176a81d10107dc68f99.jpg"
@@ -1367,59 +1636,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264729/strawberry-banana-breeze-smoothie/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Strawberry Banana Breeze Smoothie</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 medium banana\n\n\n1 ½ cups fresh strawberries\n\n\n1 cup Almond Breeze Original or Unsweetened Original almondmilk\n\n\n½ cup fresh or juice packed pineapple\n\n\n1 tablespoon slivered or sliced almonds (Optional)\n\n\n1 teaspoon flax seeds (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 medium banana\n\n\n1 ½ cups fresh strawberries\n\n\n1 cup Almond Breeze Original or Unsweetened Original almondmilk\n\n\n½ cup fresh or juice packed pineapple\n\n\n1 tablespoon slivered or sliced almonds (Optional)\n\n\n1 teaspoon flax seeds (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Puree all ingredients in a blender until smooth."},{"recipe_directions":"Feel free to substitute chia seeds for the flax."},{"recipe_directions":"Both sliced and slivered almonds will work."},{"recipe_directions":"Nutritional analysis per serving:\nCalories 120\nTotal Fat 2g\nCholesterol 0mg\nSodium 90mg\nPotassium 489mg\nTotal Carbohydrate 26g\nDietary Fiber 5g\nSugars 16g\nProtein 2g"}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Trusted Brands: Recipes and Tips"},{"recipe_tags":"Almond Breeze"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699656402-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KnR__iMW8Tguegh3nCvyAXChtns=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/8998881-0de374659e864cb3ad2c217a14c5ad17.jpg"
@@ -1432,59 +1697,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283239/air-fryer-breakfast-potatoes/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Air Fryer Breakfast Potatoes</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound russet potatoes, cut into 1-inch cubes\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound russet potatoes, cut into 1-inch cubes\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cubed potatoes in a bowl, cover with cold water, and let sit 30 minutes."},{"recipe_directions":"Preheat an air fryer to 400 degrees F (200 degrees C)."},{"recipe_directions":"Drain potatoes and pat dry with a paper towel. Add oil, salt, and pepper. Stir until evenly combined."},{"recipe_directions":"Place potatoes in the basket of the air fryer and cook for 20 minutes; shaking halfway through cook time."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"120\nCalories\n\n\n4g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699656405-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iKAc3_8aa3l-aj-hEFfM9ggxDZU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/7855122-88b764960a4540cba9459114719619b6.jpg"
@@ -1497,59 +1758,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279599/super-immunity-boost-juice/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Super Immunity Boost Juice</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 drink"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (2 inch) piece fresh ginger root\n\n\n2 (1 1/2 inch) pieces fresh turmeric\n\n\n3 large  naval oranges, peeled\n\n\n  ice cubes"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (2 inch) piece fresh ginger root\n\n\n2 (1 1/2 inch) pieces fresh turmeric\n\n\n3 large  naval oranges, peeled\n\n\n  ice cubes'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Process ginger, turmeric, and oranges through a juicer in the order listed. Pour over ice and drink immediately."},{"recipe_directions":"Depending on your oranges, this recipe will yield between 12 and 16 fluid ounces."},{"recipe_directions":"A 2-inch piece of ginger is about 1 ounce. Two 1 1/2-inch pieces of turmeric are about 1/2 ounce. There is no need to peel the ginger or turmeric, but turmeric will stain, so take care when handling. For a spicier flavor, increase the ginger."},{"recipe_directions":"Juices made in a centrifugal juicer should be consumed within 24 hours. Juices made in a masticating (cold-press) juicer should be consumed within 48 hours."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"282\nCalories\n\n\n1g \nFat\n\n\n70g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699656408-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4V_MHpMdhk353xz9WNiX8IA1_7U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1208x0:1210x2):format(webp)/9444409-8833b8432544475a9924ac8e230c6f51.jpg"
@@ -1562,59 +1819,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241170/oatmeal-energy-bars/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Oatmeal Energy Bars</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n24 \n\n\nYield:\n24 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅓ cups rolled oats\n\n\n½ cup all-purpose flour\n\n\n½ cup vegan semi-sweet chocolate chips\n\n\n½ cup ground unsalted cashews\n\n\n2 tablespoons shelled unsalted sunflower seeds\n\n\n1 tablespoon ground flax meal\n\n\n1 tablespoon wheat germ\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon sea salt\n\n\n½ cup honey, warmed\n\n\n⅓ cup almond butter\n\n\n½ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅓ cups rolled oats\n\n\n½ cup all-purpose flour\n\n\n½ cup vegan semi-sweet chocolate chips\n\n\n½ cup ground unsalted cashews\n\n\n2 tablespoons shelled unsalted sunflower seeds\n\n\n1 tablespoon ground flax meal\n\n\n1 tablespoon wheat germ\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon sea salt\n\n\n½ cup honey, warmed\n\n\n⅓ cup almond butter\n\n\n½ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a 9x11-inch baking dish with aluminum foil."},{"recipe_directions":"Whisk oats, flour, chocolate chips, ground cashews, sunflower seeds, flax meal, wheat germ, cinnamon, and sea salt together in a large shallow bowl."},{"recipe_directions":"Stir warmed honey, almond butter, and vanilla extract together in a bowl until well-mixed. Pour honey mixture into oat mixture; stir until batter is well-combined. Turn batter out into prepared baking dish. Lay a sheet of waxed paper over batter and press firmly to evenly distribute in the baking dish. Remove and discard waxed paper."},{"recipe_directions":"Bake in the preheated oven until golden and fragrant, about 12 minutes. Pull aluminum foil from baking dish and cool bars in the aluminum foil for 10 minutes; remove and discard aluminum foil. Cut into bars."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Granola Bar Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"116\nCalories\n\n\n6g \nFat\n\n\n16g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699656411-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yGSpzZs33quYRF022sJt9oTtwR4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4414096-bfb773c7483e4f64a90b6eddc6ddc153.jpg"
@@ -1627,59 +1880,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256442/banana-chocolate-almond-milk-smoothie/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Banana Chocolate Almond Milk Smoothie</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup almond milk\n\n\n1 medium banana\n\n\n1 ½ ounces dark chocolate bar (such as Hershey's® Special Dark), broken into pieces\n\n\n1 scoop whey protein powder (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 cup almond milk\n\n\n1 medium banana\n\n\n1 ½ ounces dark chocolate bar (such as Hershey's® Special Dark), broken into pieces\n\n\n1 scoop whey protein powder (Optional)"}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond milk, banana, dark chocolate, and protein powder in a blender; blend until smooth."},{"recipe_directions":"Combine 2 cups water and 1 cup raw almonds in a bowl; soak for 8 hours. Transfer almonds and water to a blender and blend until pasty. Pour mixture through a cheesecloth-lined strainer into a bowl, squeezing excess liquid out of the almond meal. The remaining almond meal can be used in baking after it has been dried out a bit."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"503\nCalories\n\n\n18g \nFat\n\n\n69g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699656414-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GWSyRLGeMDTueu7uboYL8dQw8O8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4306820-1-03c4343d6fe24b1da39018124b388d42.jpg"
@@ -1691,59 +1940,55 @@
 Vegan Breakfast and Brunch Classics</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/vegan-brunch-recipes/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Vegan Breakfast and Brunch Classics</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Lighten up your weekend routine by going vegan for breakfast or brunch. These healthy vegan breakfast ideas are twists on time-honored dishes. So satisfying you won't miss the meat, cheese, or eggs!"},{"recipe_directions":"These vegan crepes are dead ringers for the traditional egg-y preparation. Reviewers say be patient and don't flip the crepe too soon!"},{"recipe_directions":"Enjoy the taste of breakfast sausages, but with zero cholesterol! Tempeh is the base for these hearty patties."},{"recipe_directions":"Reviewers say double down on the citrus. Using the zest in addition to fresh lemon juice makes these pastries extra brilliant."},{"recipe_directions":"Nutritional yeast, otherwise known as brewer's yeast, stands in for the eggs in this recipe. That distinctive ingredient gives the preparation a slightly nutty taste."},{"recipe_directions":"Replace the eggs with extra-firm tofu for this satisfying dish. \"Tofu scrambles up just like eggs,\" says isachandra. \"And with some clever spices, even non-vegans will barely notice the difference.\" It's a complete savory vegan breakfast! You'll spoon hash browns into each bowl, along with scoops of beans and tofu scramble. \"Try setting out toppings to let family or guests assemble their own vegan breakfast burritos in a bowl.\""},{"recipe_directions":"\"You can't tell at all that these vegan muffins don't have any dairy or eggs,\" says MIEKO1. Make them in advance for quick vegan breakfasts on the go during the busy workweek."},{"recipe_directions":"Fans describe these flapjacks as light and fluffy, with a hint of sweetness. They've been made more than 600 times and get rave reviews."},{"recipe_directions":"Chickpea flour makes a surprisingly similar texture to eggs when cooked into an \"omelette\" or \"frittata.\" In this recipe its served open-faced with loads of veggies on top."},{"recipe_directions":"Muesli is a lot like granola in the raw, which makes it super versatile. Serve it on top of soy yogurt or pour warm almond milk over the top for an easy vegan breakfast and a satisfying start to the day. This version has more than 100 5-star reviews."},{"recipe_directions":"This low carb vegan breakfast has a custard-like quality that makes the dish so beloved. But this vegan quiche is tons lighter than the traditional egg pie. Dijon mustard ups its French accent."},{"recipe_directions":"Get a quick-and-easy energy boost with almond butter, cocoa powder, and coconut oil. Perfect for a quick snack or vegan keto breakfast."},{"recipe_directions":"While most potato pancakes rely on eggs to bind the ingredients into that easy-to-fry shape, this preparation comes straight from an Eastern European grandmother. And you can't argue with that, or with the interesting addition of shredded carrots and garlic. Serve these golden goodies with some soy chorizo."},{"recipe_directions":"\"Great, quick and easy biscuits!\" says user Christy Payne."},{"recipe_directions":"Almost like dessert for breakfast! This overnight vegan oatmeal is loaded with good stuff: almond-coconut milk, chia seeds, shredded coconut, ground cardamom, cinnamon, vanilla extract, ground ginger, and nutmeg."},{"recipe_directions":"\"I was skeptical about how it would taste but was very pleasantly surprised,\" says user RonGoings. \"It is crispy and even smells like bacon.\""},{"recipe_directions":"These waffles go deep on good-for-you ingredients like flax seed meal and rolled oats, but they don't taste \"healthy,\" especially with some jam on top."},{"recipe_directions":"An easy breakfast to whip up, this avocado toast is infused with bright flavor thanks to the inclusion of parsley and lemon."},{"recipe_directions":"Get your day started with a hefty dose of veggies in this delicious breakfast bowl. Crispy smashed potatoes pairs with kale, red bell pepper, and tofu."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699656417-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nEgQW-OSI-M1nCe8yxTVOCeYcTo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3507817-4114a856ab32488bb8a50b7dcf67b3e8.jpg"
@@ -1756,59 +2001,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256230/hearty-multigrain-seeded-bread/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Hearty Multigrain Seeded Bread</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 1 hr 40 mins\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n12 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup warm water\n\n\n¼ cup white sugar\n\n\n1 (.25 ounce) package active dry yeast\n\n\n2 cups bread flour\n\n\n1 cup whole wheat flour\n\n\n¼ cup coconut oil\n\n\n1 teaspoon salt\n\n\n1 tablespoon chia seeds\n\n\n1 tablespoon wheat germ\n\n\n1 tablespoon flax seeds\n\n\n1 tablespoon millet\n\n\n2 tablespoons hulled hemp seeds, divided\n\n\n2 tablespoons salted roasted sunflower seeds, divided\n\n\n2 tablespoons old-fashioned oats, divided"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup warm water\n\n\n¼ cup white sugar\n\n\n1 (.25 ounce) package active dry yeast\n\n\n2 cups bread flour\n\n\n1 cup whole wheat flour\n\n\n¼ cup coconut oil\n\n\n1 teaspoon salt\n\n\n1 tablespoon chia seeds\n\n\n1 tablespoon wheat germ\n\n\n1 tablespoon flax seeds\n\n\n1 tablespoon millet\n\n\n2 tablespoons hulled hemp seeds, divided\n\n\n2 tablespoons salted roasted sunflower seeds, divided\n\n\n2 tablespoons old-fashioned oats, divided'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix warm water and sugar together in a bowl until sugar is dissolved; stir in yeast. Set aside until a creamy foam starts to form, about 5 minutes."},{"recipe_directions":"Combine bread flour, whole wheat flour, coconut oil, and salt in a food processor; pulse 4 times. Add chia seeds, wheat germ, flax seeds, millet, 1 tablespoon hemp seeds, 1 tablespoon sunflower seeds, and 1 tablespoon oats; pulse until incorporated."},{"recipe_directions":"Pour yeast mixture over flour mixture in the food processor; process until a dough ball forms, about 1 minute."},{"recipe_directions":"Turn dough into a well-oiled large bowl and cover with a damp towel; allow to rise in a warm area until doubled in size, about 1 hour."},{"recipe_directions":"Punch dough down and knead a few times. Form dough into an oblong shape and place in a greased bread pan. Lightly press the remaining hemp seeds, sunflower seeds, and oats onto the loaf. Cover with a damp towel and let rise in a warm area for 30 minutes."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake in the preheated oven until cooked through and crust is lightly browned, about 30 minutes. Cool bread in the pan for 5 minutes before transferring to a wire rack to cool completely."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"124\nCalories\n\n\n7g \nFat\n\n\n14g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699656420-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nAa3GDKBqDkkefGHqe9UCkDSWRU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/4566099-4fab1b71d86a412885a78c101a795149.jpg"
@@ -1821,59 +2062,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/152260/delicious-oat-bran-cereal/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Delicious Oat Bran Cereal</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup water\n\n\n¼ teaspoon ground cinnamon\n\n\n5  dried pitted prunes, chopped\n\n\n1 teaspoon sugar substitute (such as Splenda)\n\n\n¼ cup oat bran"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n¼ teaspoon ground cinnamon\n\n\n5  dried pitted prunes, chopped\n\n\n1 teaspoon sugar substitute (such as Splenda)\n\n\n¼ cup oat bran'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water, cinnamon, prunes, and sugar substitute in a small saucepan over medium heat; bring to a boil. Stir in oat bran and boil for 2 minutes."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"160\nCalories\n\n\n2g \nFat\n\n\n42g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699656423-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LziigiCBsAs4nA52Wlo6SBd9hMU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1122507-e6834d45977840e58b015fa02593a9dc.jpg"
@@ -1886,59 +2123,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237288/overnight-chai-oatmeal/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Overnight Chai Oatmeal</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 10 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup oats\n\n\n1 cup almond-coconut milk\n\n\n2 tablespoons chia seeds\n\n\n2 tablespoons shredded coconut\n\n\n¼ teaspoon ground cardamom\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ teaspoon vanilla extract\n\n\n¼ teaspoon ground ginger\n\n\n¼ teaspoon nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup oats\n\n\n1 cup almond-coconut milk\n\n\n2 tablespoons chia seeds\n\n\n2 tablespoons shredded coconut\n\n\n¼ teaspoon ground cardamom\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ teaspoon vanilla extract\n\n\n¼ teaspoon ground ginger\n\n\n¼ teaspoon nutmeg'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine oats, almond-coconut milk, chia seeds, coconut, cardamom, cinnamon, vanilla extract, ginger, and nutmeg in a bowl. Cover bowl with plastic wrap and refrigerate, 8 hours to overnight."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"267\nCalories\n\n\n10g \nFat\n\n\n37g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699656426-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LnYTpMpG_xTqSQiMlEhKTpkxtEs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5658630-2000-74c9ee97036749fdbba7996ae77432a1.jpg"
@@ -1950,59 +2183,55 @@
 15 Plant-Based Breakfasts to Energize Your Day</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/plant-based-breakfasts/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>15 Plant-Based Breakfasts to Energize Your Day</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Starting the morning with a plant-based breakfast can give you a boost of energy and leave you feeling good about the rest of the day. These 15 vegan-friendly recipes range between sweet and savory, featuring favorites like tofu breakfast bowls, chocolate chip pancakes, and even eggplant \"bacon.\""},{"recipe_directions":"Equal parts beloved and bullied, avocado toast is definitely a food people have opinions about. And with 100+ positive reviewers, our opinion is that this recipe is a winner."},{"recipe_directions":"Get the protein and fiber of oatmeal, but in the form of delightfully fluffy chocolate pancakes. If you have picky eaters who may shy away from oatmeal, the oats can be blended into a smooth flour before using."},{"recipe_directions":"\"Tofu scrambles up just like eggs, and with some clever spices, even non-vegans will barely notice the difference,\" says recipe creator Isa Chandra. \"Try setting out toppings to let family or guests assemble their own burrito bowls.\""},{"recipe_directions":"Flax seed meal is the secret ingredient to these fluffy waffles. The seeds thicken up when added to water, acting as a plant-based egg alternative."},{"recipe_directions":"Seasoned and blended firm tofu is the base for this egg-free quiche. Reviewer RASACS says, \"Very yummy — my husband had no idea it was tofu.\""},{"recipe_directions":"If chai tea is your favorite way to start the day, then this spiced oatmeal is a sure winner. Cardamom, cinnamon, and ginger dress up this healthy bowl of oats and chia seeds."},{"recipe_directions":"\"TVP, oats, and a variety of herbs and spices provide a vegan alternative to breakfast sausage in this easy recipe,\" says recipe creator Breanna Ford. \"Dough can be rolled into a log, stored in plastic wrap, and kept in the fridge for up to a week, or cooked immediately.\""},{"recipe_directions":"Smashing is the best technique for these baby potatoes, creating delightfully fluffy interiors with a crispy crust outside. Layer them up in a bowl with veggies and tofu for a filling breakfast."},{"recipe_directions":"Eggplant is magically transformed into a faux bacon. While crispier than the meat version, these strips can be served on the side or stuffed into a breakfast BLT. Make sure to use vegetarian Worcestershire for this recipe, since the traditional kind contains anchovies."},{"recipe_directions":"In the same vegetable family as cabbage and broccoli, kohlrabi is a mild root veggie that's perfect for breakfast. Everything bakes together on the same sheet pan, meaning you can have breakfast done with only one dirty dish."},{"recipe_directions":"\"Chickpea flour and lightly sautéed vegetables recreate an eggless frittata or open-faced omelette,\" says recipe creator Buckwheat Queen. \"A delicious — not too dense, not too fluffy — must-have on your brunch table.\""},{"recipe_directions":"Hearty tempeh, made from fermented soybeans, is the star of this recipe. It's crumbled and simmered in spices before being formed into bite-size \"sausage\" patties."},{"recipe_directions":"When crumbled, firm tofu takes on a shockingly similar textured to scrambled eggs. A touch of turmeric adds the yellow color, while nutritional yeast and garlic powder add flavor."},{"recipe_directions":"\"You can't tell at all that these muffins don't have any dairy or eggs,\" says recipe creator MIEKO1. \"They are moist and yummy. My kids and husband polish them off as soon as they are out of the oven!\""},{"recipe_directions":"Rice paper is the secret ingredient to this extra crispy plant-based bacon. A spiced blend of soy sauce, maple syrup, and liquid smoke is key to getting the right flavor."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699656429-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UJjhmVzxtlDU6IAgnybbmc1V4B8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7655206-c29aa62fcc3245aca7544047d2bb724d.jpg"
@@ -2015,59 +2244,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254782/vegan-sweet-potato-bread/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Vegan Sweet Potato Bread</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 25 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n12 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup chopped sweet potato\n\n\n1 ½ cups white sugar\n\n\n½ cup vegetable oil\n\n\n1  over-ripe banana\n\n\n1 ¾ cups sifted all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon baking powder\n\n\n⅓ cup water\n\n\n½ cup chopped pecans"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup chopped sweet potato\n\n\n1 ½ cups white sugar\n\n\n½ cup vegetable oil\n\n\n1  over-ripe banana\n\n\n1 ¾ cups sifted all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon baking powder\n\n\n⅓ cup water\n\n\n½ cup chopped pecans'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water to a boil in a large pot. Add sweet potatoes and cook until tender, 20 to 30 minutes; drain. Place sweet potatoes in a bowl and mash with a potato masher until smooth."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a 9x5-inch loaf pan."},{"recipe_directions":"Stir sugar and oil together in a bowl until well mixed; beat in banana. Combine flour, baking soda, cinnamon, nutmeg, salt, and baking powder in a separate bowl. Alternate stirring the flour mixture and 1/3 cup water into the sugar mixture until combined. Mix in sweet potatoes and pecans; stir until batter is smooth. Pour batter into the prepared loaf pan."},{"recipe_directions":"Bake in the preheated oven until top is golden brown, about 1 hour."},{"recipe_directions":"Yams can be substituted for sweet potatoes, if desired."},{"recipe_directions":"The 9x5-inch loaf pan can be substituted with 2 small loaf pans."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"295\nCalories\n\n\n13g \nFat\n\n\n44g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699656432-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1hcmFq6dw4jZdgJi9ZeC126KeRw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1367x0:1369x2):format(webp)/6089511-3191a878b30844a9b6c23c8b44cd7a2b.jpg"
@@ -2080,59 +2305,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269522/oatmeal-banana-pancakes/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Oatmeal-Banana Pancakes</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup old-fashioned oatmeal\n\n\n¾ cup almond milk\n\n\n½ cup almond flour\n\n\n1  ripe banana\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n½ teaspoon baking powder\n\n\n¼ teaspoon salt\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup old-fashioned oatmeal\n\n\n¾ cup almond milk\n\n\n½ cup almond flour\n\n\n1  ripe banana\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n½ teaspoon baking powder\n\n\n¼ teaspoon salt\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place oats in a blender and blend into a fine powder. Add almond milk, almond flour, banana, sugar, vanilla extract, cinnamon, baking powder, and salt; blend until well mixed. Let batter sit until thickened, about 10 minutes."},{"recipe_directions":"Heat a skillet over medium-high heat and coat with cooking spray. Drop 1/4 cup batter onto the hot skillet and cook until bubbles form and edges are dry, 3 to 4 minutes. Flip and cook until browned on the other side, 2 to 3 minutes. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"},{"recipe_tags":"Whole Grain Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"393\nCalories\n\n\n18g \nFat\n\n\n51g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699656436-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Iks5Bw5idhCesmZR4QYW3Qov_wI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1279x0:1281x2):format(webp)/109683-vegan-109683-vegan-zucchini-bread-g--a-kitchen-4x3.jpg-c017f6d999b94bf4863e1740797fee01.png"
@@ -2146,59 +2367,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/109683/kingmans-vegan-zucchini-bread/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Vegan Zucchini Bread</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n24 \n\n\nYield:\n2 (9x5-inch) loaf pans"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups all-purpose flour\n\n\n3 tablespoons flax seeds (Optional)\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon salt\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon arrowroot powder (Optional)\n\n\n1 cup unsweetened applesauce\n\n\n1 cup white sugar\n\n\n1 cup packed brown sugar\n\n\n¾ cup vegetable oil\n\n\n2 teaspoons vanilla extract\n\n\n2 ½ cups shredded zucchini"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups all-purpose flour\n\n\n3 tablespoons flax seeds (Optional)\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon salt\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon arrowroot powder (Optional)\n\n\n1 cup unsweetened applesauce\n\n\n1 cup white sugar\n\n\n1 cup packed brown sugar\n\n\n¾ cup vegetable oil\n\n\n2 teaspoons vanilla extract\n\n\n2 ½ cups shredded zucchini'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Grease and flour two 9x5-inch loaf pans."},{"recipe_directions":"Whisk flour, flax seeds, cinnamon, salt, baking soda, baking powder, and arrowroot together in a bowl until evenly blended; set aside."},{"recipe_directions":"Whisk applesauce, white sugar, brown sugar, vegetable oil, and vanilla extract in a separate bowl until smooth; fold in flour mixture and shredded zucchini until moistened. Divide batter between the prepared loaf pans."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, about 70 minutes. Cool briefly in the pans before removing to cool completely on a wire rack."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Zucchini Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"200\nCalories\n\n\n8g \nFat\n\n\n32g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699656439-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OcV5N47-vLZfeIyJgeqdXp6KqwQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4461547-4a1bbd9e56404007a35a5fc45df1ef11.jpg"
@@ -2211,59 +2428,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256860/steel-cut-oats-and-quinoa-breakfast/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Steel-Cut Oats and Quinoa Breakfast</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups water\n\n\n½ cup quinoa\n\n\n½ cup steel-cut oats\n\n\n2 tablespoons almond meal\n\n\n2 tablespoons flaxseed meal\n\n\n1 tablespoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups water\n\n\n½ cup quinoa\n\n\n½ cup steel-cut oats\n\n\n2 tablespoons almond meal\n\n\n2 tablespoons flaxseed meal\n\n\n1 tablespoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water to a boil in a saucepan; add quinoa and oats. Simmer, stirring frequently, until water is absorbed and quinoa is tender, 15 to 20 minutes."},{"recipe_directions":"Stir almond meal and flaxseed meal into oat-quinoa mixture; pour into a glass container and top with cinnamon. Let cool for about 15 minutes. Transfer to the refrigerator for storage."},{"recipe_directions":"Play around with different nuts and seeds for other flavors. If you do not have quinoa, replace it with an equal amount of steel-cut oats."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"191\nCalories\n\n\n5g \nFat\n\n\n31g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699656442-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/emN7qIQkJjJYmbAsZzxEJ-jbn-s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2393000-fecc4b9b1d644bb3833e6796bbf5e268.jpg"
@@ -2276,59 +2489,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244477/refreshing-banana-drink/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Refreshing Banana Drink</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup almond milk\n\n\n1 medium ripe banana\n\n\n4  ice cubes\n\n\n1 pinch ground cinnamon\n\n\n1 dash vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup almond milk\n\n\n1 medium ripe banana\n\n\n4  ice cubes\n\n\n1 pinch ground cinnamon\n\n\n1 dash vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond milk, banana, ice cubes, cinnamon, and vanilla in a blender; blend on medium speed until frothy and smooth, about 1 minute."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"158\nCalories\n\n\n2g \nFat\n\n\n34g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699656445-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/J2HNJ-J7Ba53a5Krac4l8dwEkUw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1907733-60c3ba14c3eb40f49ddaa8e7d17e684d.jpg"
@@ -2341,59 +2550,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240596/vegan-strawberry-oatmeal-breakfast-smoothie/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Vegan Strawberry Oatmeal Breakfast Smoothie</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup almond milk\n\n\n½ cup rolled oats\n\n\n14  frozen strawberries\n\n\n1  banana, broken into chunks\n\n\n1 ½ teaspoons agave nectar (Optional)\n\n\n½ teaspoon vanilla extract (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup almond milk\n\n\n½ cup rolled oats\n\n\n14  frozen strawberries\n\n\n1  banana, broken into chunks\n\n\n1 ½ teaspoons agave nectar (Optional)\n\n\n½ teaspoon vanilla extract (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend almond milk, oats, strawberries, banana, agave nectar, and vanilla extract in a blender until smooth."},{"recipe_directions":"Rice milk can be used in place of the almond milk."},{"recipe_directions":"Two packets of stevia sweetener can replace the agave syrup, if preferred."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"205\nCalories\n\n\n3g \nFat\n\n\n42g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699656449-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3qiOfiDiDv6SPdIIbJ07CEifvLk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/7521950-d33fd8ceee8341cbb178354f2d33fd33.jpg"
@@ -2406,59 +2611,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282545/sheet-pan-breakfast-potatoes/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Sheet Pan Breakfast Potatoes</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds baby red potatoes\n\n\n1 medium yellow onion, diced\n\n\n1 medium bell pepper, diced\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon garlic powder\n\n\n½ teaspoon salt, or to taste\n\n\n½ teaspoon ground black pepper, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds baby red potatoes\n\n\n1 medium yellow onion, diced\n\n\n1 medium bell pepper, diced\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon garlic powder\n\n\n½ teaspoon salt, or to taste\n\n\n½ teaspoon ground black pepper, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Cut potatoes into 1 1/2-inch wedges. Place in a large bowl with onion and bell pepper. Add olive oil, garlic powder, salt, and pepper; mix well. Place mixture onto the prepared baking sheet."},{"recipe_directions":"Roast in the preheated oven, stirring halfway through, until potatoes are tender, about 30 minutes."},{"recipe_directions":"Turn on the broiler and broil until crispy, checking often to prevent burning, 2 to 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Roasted Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"209\nCalories\n\n\n4g \nFat\n\n\n41g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699656452-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/M08LuqcwhkVOVnFtaRp9yFQpKDc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2891469-7445de9eb8e54ff0a13a5312f255b1b8.jpg"
@@ -2471,59 +2672,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245285/simple-fry-bread/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Simple Fry Bread</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n3 \n\n\nYield:\n6 pieces"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"vegetable oil, for frying\n\n\n2 cups all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n1 teaspoon salt\n\n\n¾ cup water, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'vegetable oil, for frying\n\n\n2 cups all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n1 teaspoon salt\n\n\n¾ cup water, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large saucepan to 350 degrees F (175 degrees C). Oil should be at least 1-inch deep."},{"recipe_directions":"Mix flour, baking powder, and salt together in a large bowl. Add water, a little at a time, until a ball forms and the dough doesn't stick to your hands, about 5 minutes; you may not use the full amount."},{"recipe_directions":"Tear off plum-sized pieces of dough and flatten into 1/2-inch disks."},{"recipe_directions":"Fry pieces of dough in hot oil until brown on both sides, about 3 minutes. Drain on paper towels or napkins before serving."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"370\nCalories\n\n\n8g \nFat\n\n\n65g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699656455-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yEihul_ozeX95BHj60UB3LSGIUA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5550584-almond-berry-smoothie-Kim-4x3-1-0a6dde70ce51405798b271b4d6709efb.jpg"
@@ -2537,59 +2734,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246613/almond-berry-smoothie/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Almond Berry Smoothie</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup frozen blueberries\n\n\n1  banana\n\n\n½ cup almond milk\n\n\n1 tablespoon almond butter\n\n\n  water as needed"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup frozen blueberries\n\n\n1  banana\n\n\n½ cup almond milk\n\n\n1 tablespoon almond butter\n\n\n  water as needed'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine blueberries, banana, almond milk, and almond butter in a blender; blend until smooth, adding water for a thinner smoothie."},{"recipe_directions":"Any type of frozen berry can be used in place of the blueberries, if desired."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"321\nCalories\n\n\n12g \nFat\n\n\n56g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699656458-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8SselM8_R6H-6chcbf94UeRdy2s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3335410-43637ed686524a259ea9d0d97f071780.jpg"
@@ -2602,59 +2795,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246520/raw-chia-porridge/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Raw Chia "Porridge"</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup chia seeds\n\n\n1  banana\n\n\n2  dates, pitted\n\n\n1 cup almond milk\n\n\n¼ teaspoon ground cinnamon\n\n\n  salt to taste\n\n\n¼ cup fresh blueberries, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup chia seeds\n\n\n1  banana\n\n\n2  dates, pitted\n\n\n1 cup almond milk\n\n\n¼ teaspoon ground cinnamon\n\n\n  salt to taste\n\n\n¼ cup fresh blueberries, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chia seeds in a bowl."},{"recipe_directions":"Layer banana and dates in a blender; add almond milk, cinnamon, and salt. Blend mixture until smooth and pour over chia seeds, stirring well. Let mixture sit until thickened, at least 15 minutes."},{"recipe_directions":"Stir chia \"porridge\" and top with blueberries."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"385\nCalories\n\n\n13g \nFat\n\n\n67g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699656461-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rNz9v9RF1r2Ngay9uPFMb7HX7BQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1016339-c7acc0507d7442a2904ed4fc69448546.jpg"
@@ -2667,59 +2856,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25320/tofu-quiche-with-broccoli/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Tofu Quiche with Broccoli</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6 \n\n\nYield:\n1 9-inch pie"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (9 inch) unbaked pie crust\n\n\n1 pound broccoli, chopped\n\n\n1 tablespoon olive oil\n\n\n1  onion, finely chopped\n\n\n4 cloves garlic, minced\n\n\n1 pound firm tofu, drained\n\n\n½ cup soy milk\n\n\n¼ teaspoon Dijon mustard\n\n\n¾ teaspoon salt\n\n\n¼ teaspoon ground nutmeg\n\n\n½ teaspoon ground red pepper\n\n\n  black pepper to taste\n\n\n1 tablespoon dried parsley\n\n\n⅛ cup Parmesan flavor soy cheese"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (9 inch) unbaked pie crust\n\n\n1 pound broccoli, chopped\n\n\n1 tablespoon olive oil\n\n\n1  onion, finely chopped\n\n\n4 cloves garlic, minced\n\n\n1 pound firm tofu, drained\n\n\n½ cup soy milk\n\n\n¼ teaspoon Dijon mustard\n\n\n¾ teaspoon salt\n\n\n¼ teaspoon ground nutmeg\n\n\n½ teaspoon ground red pepper\n\n\n  black pepper to taste\n\n\n1 tablespoon dried parsley\n\n\n⅛ cup Parmesan flavor soy cheese'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Bake pie crust in the preheated oven until golden brown, 10 to 12 minutes. Set aside."},{"recipe_directions":"Place broccoli in a steamer over 1-inch boiling water. Cover and cook until tender but still firm, 2 to 6 minutes. Drain."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Sauté onion and garlic until golden. Stir in cooked broccoli and heat through. Set aside."},{"recipe_directions":"Combine tofu, soy milk, mustard, salt, nutmeg, ground red pepper, black pepper, parsley, and Parmesan soy cheese in a blender; process until smooth. Pour into a large bowl and stir in broccoli mixture. Transfer mixture to pie crust."},{"recipe_directions":"Bake in the preheated oven until quiche is set, 35 to 40 minutes. Allow to stand for at least 5 minutes before cutting."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Quiche"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"337\nCalories\n\n\n20g \nFat\n\n\n26g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699656464-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0ASNlL1p5_PyZg2-XiNvSCAOp7s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/7891989-cd15c4f069084f85a201c5b9fd5b7706.jpg"
@@ -2732,59 +2917,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215075/fasoulia-breakfast-kidney-bean-dish/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Fasoulia (Breakfast Kidney Bean Dish)</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil\n\n\n1 large onion, chopped\n\n\n1  jalapeno pepper, finely chopped, or more to taste\n\n\n1  tomato, chopped\n\n\n2 teaspoons tomato paste\n\n\n2 (15 ounce) cans dark red kidney beans, undrained\n\n\n1 ½ teaspoons ground cumin\n\n\n1 ½ teaspoons curry powder\n\n\n  salt and black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil\n\n\n1 large onion, chopped\n\n\n1  jalapeno pepper, finely chopped, or more to taste\n\n\n1  tomato, chopped\n\n\n2 teaspoons tomato paste\n\n\n2 (15 ounce) cans dark red kidney beans, undrained\n\n\n1 ½ teaspoons ground cumin\n\n\n1 ½ teaspoons curry powder\n\n\n  salt and black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium heat; cook onion, stirring occasionally, until translucent, about 5 minutes."},{"recipe_directions":"Stir in jalapeño pepper; cook and stir until softened, about 5 more minutes."},{"recipe_directions":"Mix in tomato and tomato paste; stir well to combine. Pour in kidney beans with their liquid; stir in cumin and curry powder. Bring to a boil, reduce heat to medium-low, and simmer until beans are hot and sauce has thickened, about 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"298\nCalories\n\n\n11g \nFat\n\n\n39g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699656469-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MWGwWr_4kP4ozpjNruInxNMYbno=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(516x0:518x2):format(webp)/9264480-6425d1002a1e40d089a1ca7f1c5157f4.jpg"
@@ -2797,59 +2978,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244176/egg-free-and-milk-free-baked-oatmeal/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Egg-Free and Milk-Free Baked Oatmeal</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 50 mins\n\n\nServings:\n6 \n\n\nYield:\n1 pie pan"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup unsweetened applesauce\n\n\n¾ cup white sugar\n\n\n3 cups oats\n\n\n1 cup plain soy milk\n\n\n1 tablespoon baking powder\n\n\n¼ teaspoon baking powder\n\n\n1 teaspoon vegetable oil\n\n\n½ teaspoon sea salt\n\n\n½ cup raisins\n\n\n1 tablespoon brown sugar, or more to taste\n\n\n½ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup unsweetened applesauce\n\n\n¾ cup white sugar\n\n\n3 cups oats\n\n\n1 cup plain soy milk\n\n\n1 tablespoon baking powder\n\n\n¼ teaspoon baking powder\n\n\n1 teaspoon vegetable oil\n\n\n½ teaspoon sea salt\n\n\n½ cup raisins\n\n\n1 tablespoon brown sugar, or more to taste\n\n\n½ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Lightly grease a pie pan."},{"recipe_directions":"Beat applesauce and white sugar together in a bowl. Add oats, soy milk, 1 tablespoon plus 1/4 teaspoon baking powder, vegetable oil, and sea salt; mix well. Fold raisins into oat mixture."},{"recipe_directions":"Pour oat mixture into the prepared pie pan; top with brown sugar and cinnamon. Refrigerate for 8 hours to overnight."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake in the preheated oven until oatmeal is firm, 35 to 50 minutes."},{"recipe_directions":"Substitute rice milk or almond milk for the soy milk, if desired. Any dried fruit can be used in place of the raisins."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"348\nCalories\n\n\n4g \nFat\n\n\n74g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699656472-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/56sBWsbuMqNOLSpxpCjPmEuNvu4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5551417-chocolate-coconut-overnight-oats-Kim-4x3-1-c2d1489cec4c491e90df47ee251d44af.jpg"
@@ -2863,59 +3040,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244939/chocolate-coconut-overnight-oats/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Chocolate Coconut Overnight Oats</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup chocolate-flavored almond milk\n\n\n¾ cup old-fashioned rolled oats (such a Quaker®)\n\n\n1 tablespoon chia seeds\n\n\n1 tablespoon packed shredded sweetened coconut\n\n\n1 tablespoon maple syrup\n\n\n1 tablespoon unsweetened cocoa powder\n\n\n1 splash vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup chocolate-flavored almond milk\n\n\n¾ cup old-fashioned rolled oats (such a Quaker®)\n\n\n1 tablespoon chia seeds\n\n\n1 tablespoon packed shredded sweetened coconut\n\n\n1 tablespoon maple syrup\n\n\n1 tablespoon unsweetened cocoa powder\n\n\n1 splash vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix almond milk, oats, chia seeds, coconut, maple syrup, cocoa powder, and vanilla extract in a 12-ounce mason jar."},{"recipe_directions":"Cover and refrigerate, 8 hours to overnight. Stir and serve cold."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"488\nCalories\n\n\n12g \nFat\n\n\n87g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699656476-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ghcYFJOKZxKvCkNtBM1r0MAIZF8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/7818027-0703fb95d5f9454794d2d31c59752a45.jpg"
@@ -2928,59 +3101,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278523/reduced-calorie-chocolate-banana-oatmeal/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Reduced-Calorie Chocolate Banana Oatmeal</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons unsweetened cocoa powder\n\n\n⅛ teaspoon ground cinnamon\n\n\n1 packet zero-calorie sweetener\n\n\n1 pinch salt\n\n\n¼ cup hot water\n\n\n¼ cup cold water\n\n\n⅓ cup rolled oats\n\n\n½  banana, mashed"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons unsweetened cocoa powder\n\n\n⅛ teaspoon ground cinnamon\n\n\n1 packet zero-calorie sweetener\n\n\n1 pinch salt\n\n\n¼ cup hot water\n\n\n¼ cup cold water\n\n\n⅓ cup rolled oats\n\n\n½  banana, mashed'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour cocoa powder into a microwave-safe bowl and stir in cinnamon, sweetener, and salt. Add hot water and stir thoroughly until cocoa powder has dissolved. Stir in cold water until well combined. Stir in oats and banana until mixed well."},{"recipe_directions":"Microwave for 2 minutes. Remove, stir, and allow oatmeal to cool and thicken."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n3g \nFat\n\n\n38g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699656478-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KrurLImkS9gWxT5Vg89H235x6ZA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/8315042-3d627465106246ed8310661c8c0a3f9d.jpg"
@@ -2993,59 +3162,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263457/blueberry-chia-pudding-with-almond-milk/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Blueberry Chia Pudding with Almond Milk</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 10 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups almond milk\n\n\n6 tablespoons chia seeds, or more to taste\n\n\n⅓ cup fresh blueberries\n\n\n1 tablespoon maple syrup, or more to taste\n\n\n½ teaspoon vanilla extract\n\n\n1 pinch ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups almond milk\n\n\n6 tablespoons chia seeds, or more to taste\n\n\n⅓ cup fresh blueberries\n\n\n1 tablespoon maple syrup, or more to taste\n\n\n½ teaspoon vanilla extract\n\n\n1 pinch ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond milk, chia seeds, blueberries, maple syrup, vanilla extract, and cinnamon in a blender; blend until smooth. Pour into 3 ramekins or glasses."},{"recipe_directions":"Chill until set, 8 hours to overnight. Serve chilled."},{"recipe_directions":"You can use frozen blueberries instead of fresh or any other variety of fruit and berries."},{"recipe_directions":"For the sweetener, you can use almost anything you like and sweeten it to taste."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Chia Pudding"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"146\nCalories\n\n\n7g \nFat\n\n\n19g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699656482-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZyJxqk9MGE8mTx2ZFpVlWYUwtvk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2969063-blueberry-smoothie-bowl-Buckwheat-Queen-4x3-1-98e584ddbfa14c7ca3ad34b4ab0ff286.jpg"
@@ -3059,59 +3224,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245208/blueberry-smoothie-bowl/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Blueberry Smoothie Bowl</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 smoothie bowl"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup frozen blueberries\n\n\n½  banana\n\n\n2 tablespoons water\n\n\n1 tablespoon cashew butter\n\n\n1 teaspoon vanilla extract"},{"recipe_ingredients":"½  banana, sliced\n\n\n1 tablespoon sliced almonds\n\n\n1 tablespoon unsweetened shredded coconut"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup frozen blueberries\n\n\n½  banana\n\n\n2 tablespoons water\n\n\n1 tablespoon cashew butter\n\n\n1 teaspoon vanilla extract'}, {'recipe_ingredients': '½  banana, sliced\n\n\n1 tablespoon sliced almonds\n\n\n1 tablespoon unsweetened shredded coconut'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend blueberries, 1/2 banana, water, cashew butter, and vanilla extract together in a blender until smooth; pour into a bowl."},{"recipe_directions":"Top smoothie with sliced banana, almonds, and coconut."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bowl Recipes"},{"recipe_tags":"Smoothie"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"368\nCalories\n\n\n16g \nFat\n\n\n55g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699656485-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oPq6t8pTsRmb8KH7VT_oEj4e764=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1573x0:1575x2):format(webp)/9180322-8ef9cde16e60416dbd39afd11fc114b3.jpg"
@@ -3124,59 +3285,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283690/vegan-chocolate-blended-baked-oats/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Vegan Chocolate Blended Baked Oats</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 blended oats"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n1 cup rolled oats\n\n\n⅔ cup almond milk\n\n\n1 large ripe banana, mashed\n\n\n2 tablespoons cocoa powder\n\n\n2 tablespoons maple syrup\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon vanilla extract\n\n\n⅛ teaspoon salt\n\n\n2 tablespoons vegan chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 cup rolled oats\n\n\n⅔ cup almond milk\n\n\n1 large ripe banana, mashed\n\n\n2 tablespoons cocoa powder\n\n\n2 tablespoons maple syrup\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon vanilla extract\n\n\n⅛ teaspoon salt\n\n\n2 tablespoons vegan chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Spray two 8-ounce ramekins with cooking spray on the bottom and sides."},{"recipe_directions":"Combine oats, almond milk, banana, cocoa powder, maple syrup, baking powder, vanilla extract, and salt in a blender. Blend until all is combined well, 30 to 60 seconds. Fill mixture into the prepared ramekins and sprinkle each with 1 tablespoon chocolate chips."},{"recipe_directions":"Bake in the preheated oven until firm, about 25 minutes."},{"recipe_directions":"I tried both old-fashioned oats and quick oats and thought both worked out the same."},{"recipe_directions":"The texture will change if these sit, and the next day they will be very dense; however, I still enjoyed mine reheated in the microwave."},{"recipe_directions":"You can use the same amount of coconut sugar or agave syrup in place of maple syrup."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"},{"recipe_tags":"Oatmeal Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"379\nCalories\n\n\n11g \nFat\n\n\n72g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699656490-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qjWq5X-BhgRS4Ubr8pqcPPEZmjA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4463194-d5800f1340fe41ae9ac4db558ae1e1e9.jpg"
@@ -3189,59 +3346,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/162501/quinoa-porridge/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Quinoa Porridge</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup quinoa\n\n\n¼ teaspoon ground cinnamon\n\n\n1 ½ cups almond milk\n\n\n½ cup water\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon vanilla extract (Optional)\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup quinoa\n\n\n¼ teaspoon ground cinnamon\n\n\n1 ½ cups almond milk\n\n\n½ cup water\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon vanilla extract (Optional)\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a saucepan over medium heat and measure in the quinoa. Season with cinnamon and cook until toasted, stirring frequently, about 3 minutes. Pour in the almond milk, water and vanilla and stir in the brown sugar and salt. Bring to a boil, then cook over low heat until the porridge is thick and grains are tender, about 25 minutes. Add more water if needed if the liquid has dried up before it finishes cooking. Stir occasionally, especially at the end, to prevent burning."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"173\nCalories\n\n\n3g \nFat\n\n\n31g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699656495-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vrbsDha-jwA1pqtHK4DPI0toYkc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1047x0:1049x2):format(webp)/5432731-059dfaab84be473cb97cecc033da5002.jpg"
@@ -3254,59 +3407,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/70753/mangu/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Mangu</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  green plantains\n\n\n1 quart water\n\n\n¼ cup olive oil\n\n\n1 cup sliced white onion\n\n\n1 ½ tablespoons salt\n\n\n1 cup sliced Anaheim peppers"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  green plantains\n\n\n1 quart water\n\n\n¼ cup olive oil\n\n\n1 cup sliced white onion\n\n\n1 ½ tablespoons salt\n\n\n1 cup sliced Anaheim peppers'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the plantains and water in a saucepan. Bring to a boil, and cook 20 minutes, until plantains are tender but slightly firm. Drain, reserving 1 cup of the liquid. Cool plantains, and peel."},{"recipe_directions":"Heat the olive oil in a skillet over medium heat, and saute the onion until tender."},{"recipe_directions":"In a bowl, mash the plantains with the reserved liquid and salt. Transfer to a food processor, mix in the peppers, and puree. Serve the pureed plantain mixture topped with the onions."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Onion"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"210\nCalories\n\n\n10g \nFat\n\n\n33g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699656500-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/q6G0mfjM_Bypr51k-y70KEULstA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4306820-ultimate-tofu-breakfast-burrito-bowls-Allrecipes-Magazine-1x1-1-745f8f3119734972950942cb0c4b4fc4.jpg"
@@ -3320,59 +3469,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256021/ultimate-tofu-breakfast-burrito-bowls/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Ultimate Tofu Breakfast Burrito Bowls</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil, divided\n\n\n1 (14 ounce) package extra-firm tofu, drained\n\n\n½ teaspoon salt\n\n\n  black pepper to taste\n\n\n1 ½ teaspoons onion powder\n\n\n1 ½ teaspoons garlic powder\n\n\n½ teaspoon ground turmeric\n\n\n1 tablespoon fresh lemon juice\n\n\n1 tablespoon olive oil\n\n\n1 cup finely diced red onion\n\n\n2  jalapeno peppers, seeded and chopped\n\n\n½ teaspoon salt\n\n\n3 cloves garlic, minced\n\n\n2 cups chopped tomatoes\n\n\n1 ½ teaspoons cumin\n\n\n¼ cup chopped fresh cilantro\n\n\n1 tablespoon fresh lemon juice\n\n\n1 (15.5 ounce) can no-salt-added black beans, drained and rinsed\n\n\n1 ½ cups cooked hash brown potatoes\n\n\n1  avocado - peeled, pitted and sliced\n\n\n1 teaspoon fresh lemon juice\n\n\n¼ cup chopped fresh cilantro\n\n\n1 teaspoon hot sauce, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil, divided\n\n\n1 (14 ounce) package extra-firm tofu, drained\n\n\n½ teaspoon salt\n\n\n  black pepper to taste\n\n\n1 ½ teaspoons onion powder\n\n\n1 ½ teaspoons garlic powder\n\n\n½ teaspoon ground turmeric\n\n\n1 tablespoon fresh lemon juice\n\n\n1 tablespoon olive oil\n\n\n1 cup finely diced red onion\n\n\n2  jalapeno peppers, seeded and chopped\n\n\n½ teaspoon salt\n\n\n3 cloves garlic, minced\n\n\n2 cups chopped tomatoes\n\n\n1 ½ teaspoons cumin\n\n\n¼ cup chopped fresh cilantro\n\n\n1 tablespoon fresh lemon juice\n\n\n1 (15.5 ounce) can no-salt-added black beans, drained and rinsed\n\n\n1 ½ cups cooked hash brown potatoes\n\n\n1  avocado - peeled, pitted and sliced\n\n\n1 teaspoon fresh lemon juice\n\n\n¼ cup chopped fresh cilantro\n\n\n1 teaspoon hot sauce, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a large, heavy skillet over medium-high heat. Add 2 tablespoons oil. Break tofu apart over skillet into bite-size pieces, sprinkle with salt and pepper, then cook, stirring frequently with a thin metal spatula, until liquid cooks out and tofu browns, about 10 minutes. (If you notice liquid collecting in pan, increase heat to evaporate water.) Be sure to get under the tofu when you stir, scraping the bottom of the pan where the good, crispy stuff is and keeping it from sticking."},{"recipe_directions":"Add onion and garlic powders, turmeric, juice, and remaining tablespoon oil and toss to coat. Cook 5 minutes more."},{"recipe_directions":"Preheat a heavy-bottomed saucepan over medium-high heat. Add oil. Cook onion and jalapenos with a pinch of salt, stirring, until translucent, about 5 minutes, Add garlic and cook, stirring, until fragrant, about 30 seconds. Add tomatoes, cumin, and remaining salt, and cook, stirring, until tomatoes become saucy, about 5 minutes. Add cilantro and lemon juice. Let cilantro wilt in. Add beans and heat through, stirring occasionally, about 2 minutes. Taste for salt and seasoning."},{"recipe_directions":"Spoon some hash browns into each bowl, followed by a scoop of beans and a scoop of scramble. Top with avocado, a squeeze of fresh lemon juice, and a sprinkle of cilantro. Serve with hot sauce."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"579\nCalories\n\n\n40g \nFat\n\n\n57g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699656504-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VJXfAQ2H9XjVHxEGQPXkJDeGxMU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3605756-4910cb02090848bebfbe1563270f38d9.jpg"
@@ -3385,59 +3530,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246803/avocado-toast-vegan/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Avocado Toast (Vegan)</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 toasts"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 slices whole-grain bread\n\n\n1  avocado, halved and pitted\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 ½ teaspoons extra-virgin olive oil\n\n\n½  lemon, juiced\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon onion powder\n\n\n½ teaspoon garlic powder"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 slices whole-grain bread\n\n\n1  avocado, halved and pitted\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 ½ teaspoons extra-virgin olive oil\n\n\n½  lemon, juiced\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon onion powder\n\n\n½ teaspoon garlic powder'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toast bread in a toaster or toaster oven."},{"recipe_directions":"Scoop avocado into a bowl. Add parsley, olive oil, lemon juice, salt, pepper, onion powder, and garlic powder; mash together using a potato masher. Spread avocado mixture into each piece of toast."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"170\nCalories\n\n\n10g \nFat\n\n\n17g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699656509-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gqwtc2cVTwkSDEFYtdWGrvB_Ivk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1727x0:1729x2):format(webp)/5579480-6fc4b0d192d14492aa873ce93dceff58.jpg"
@@ -3450,59 +3591,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/161325/flax-seed-smoothie/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Flax Seed Smoothie</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup low-fat vanilla soy milk\n\n\n1 cup frozen strawberries\n\n\n½  frozen banana, peeled and cut into chunks\n\n\n2 tablespoons flaxseed meal"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup low-fat vanilla soy milk\n\n\n1 cup frozen strawberries\n\n\n½  frozen banana, peeled and cut into chunks\n\n\n2 tablespoons flaxseed meal'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place soy milk, strawberries, banana, and flaxseed meal into a blender; blend until smooth."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"273\nCalories\n\n\n8g \nFat\n\n\n47g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699656513-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KI563vy0FcqLZTk-ievdVsBifWo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3560799-bf3b3059cb0d47f9831345b71153d51b.jpg"
@@ -3515,59 +3652,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20749/country-style-fried-potatoes/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Country-Style Fried Potatoes</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup shortening\n\n\n6 large potatoes, peeled and cubed\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon paprika"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup shortening\n\n\n6 large potatoes, peeled and cubed\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon paprika'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat shortening in a large cast iron skillet over medium-high heat. Add potatoes and cook, stirring occasionally, until potatoes are golden brown. Season with salt, pepper, garlic powder, and paprika. Serve hot."},{"recipe_directions":"You may use oil instead of shortening if desired."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"326\nCalories\n\n\n12g \nFat\n\n\n52g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699656516-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AfI3ghlQWgBh8uGjKdNQWhjZuP0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3565437-25199dad8ab5414097a41a1131202504.jpg"
@@ -3580,59 +3713,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18100/eggless-crepes/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Eggless Crêpes</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n16 6-inch crêpes"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup water\n\n\n½ cup skim milk\n\n\n¼ cup butter, melted\n\n\n2 tablespoons vanilla extract\n\n\n1 cup all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon salt\n\n\n1 tablespoon vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup water\n\n\n½ cup skim milk\n\n\n¼ cup butter, melted\n\n\n2 tablespoons vanilla extract\n\n\n1 cup all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon salt\n\n\n1 tablespoon vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix water, milk, melted butter, and vanilla together in a medium bowl. Mix flour, sugar, and salt together in a small bowl until thoroughly combined. Whisk flour mixture into milk mixture until smooth. Cover batter and refrigerate for 2 hours."},{"recipe_directions":"Warm a medium skillet over medium-high heat. Coat the pan with vegetable oil, then pour in about 2 tablespoons batter. Swirl the pan to allow batter to spread out thinly. Cook until the edges are crispy and golden, then flip to cook the other side until lightly browned. Remove to a plate and repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"287\nCalories\n\n\n15g \nFat\n\n\n29g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699656520-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/daofNfyd95GvGlElRZIY5J5VgO8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/8998896-1745ae9569494fd58c07f2fe9e061fc6.jpg"
@@ -3645,59 +3774,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283232/air-fryer-seasoned-breakfast-potatoes/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Air Fryer Seasoned Breakfast Potatoes</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound russet potatoes, peeled and cut into 1-inch cubes\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon salt\n\n\n½ teaspoon onion powder\n\n\n½ teaspoon paprika\n\n\n⅛ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound russet potatoes, peeled and cut into 1-inch cubes\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon salt\n\n\n½ teaspoon onion powder\n\n\n½ teaspoon paprika\n\n\n⅛ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cubed potatoes in a bowl, cover with cold water, and let sit 30 minutes."},{"recipe_directions":"Preheat an air fryer to 400 degrees F (200 degrees C)."},{"recipe_directions":"Drain potatoes and pat dry with a paper towel. Add olive oil, salt, onion powder, paprika, and pepper. Stir until evenly combined."},{"recipe_directions":"Place potatoes in the basket of the air fryer and cook for 20 minutes; shaking halfway through cook time."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"121\nCalories\n\n\n4g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699656525-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ttkyMoDl7C6iZ3zITu3mwkPBIPg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1569442-ab0acd8f1a2042b2b3df0b47135bee08.jpg"
@@ -3710,59 +3835,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212389/samoan-panikeke/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Samoan Panikeke</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n24 panikeke"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 ½ cups all-purpose flour\n\n\n1 ⅓ cups white sugar\n\n\n2 teaspoons baking powder\n\n\n1 ½ cups water\n\n\n2 medium very ripe bananas, mashed\n\n\n1 tablespoon vanilla extract\n\n\n1 ½ cups vegetable oil for frying, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 ½ cups all-purpose flour\n\n\n1 ⅓ cups white sugar\n\n\n2 teaspoons baking powder\n\n\n1 ½ cups water\n\n\n2 medium very ripe bananas, mashed\n\n\n1 tablespoon vanilla extract\n\n\n1 ½ cups vegetable oil for frying, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk flour, sugar, and baking powder together in a bowl until thoroughly mixed. Stir in water, bananas, and vanilla until combined; dough will be smooth and sticky."},{"recipe_directions":"Heat 3 inches oil in a deep fryer to 350 degrees F (175 degrees C)."},{"recipe_directions":"Working in batches of four to five at a time, scoop a scant 1/4 cup batter with a large spoon, then use another spoon to gently push it off into the deep fryer. Fry until panikeke float to the top and turn golden brown, about 3 minutes per side. Drain on paper towels."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"337\nCalories\n\n\n11g \nFat\n\n\n55g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699656530-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/C3Cp4uTjK3kZGEksjV5H5nZ2Lt4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/173730-Kale-Banana-Smoothie-ddmfs-4x3-081-18208f62d6554b07befc0ca7e69a83fc.jpg"
@@ -3776,59 +3897,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/173730/kale-and-banana-smoothie/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Kale and Banana Smoothie</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups chopped kale\n\n\n1  banana\n\n\n½ cup light unsweetened soy milk\n\n\n1 tablespoon flax seeds\n\n\n1 teaspoon maple syrup"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups chopped kale\n\n\n1  banana\n\n\n½ cup light unsweetened soy milk\n\n\n1 tablespoon flax seeds\n\n\n1 teaspoon maple syrup'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place kale, banana, soy milk, flax seeds, and maple syrup into a blender."},{"recipe_directions":"Cover and purée until smooth."},{"recipe_directions":"Serve over ice."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"311\nCalories\n\n\n7g \nFat\n\n\n57g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699656535-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MZaQVXZrR33N3m5T4A8djUoMQDs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4939830-cornmeal-mush-Deborah-Kijak-Hess-4x3-1-21ecd18d67fe45c29bb9bf1abf0ab908.jpg"
@@ -3842,59 +3959,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19583/cornmeal-mush/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Cornmeal Mush</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups water\n\n\n1 ¼ cups cornmeal\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups water\n\n\n1 ¼ cups cornmeal\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together water, cornmeal, and salt in a medium saucepan. Cook over medium heat, stirring frequently, until mixture thickens, 5 to 7 minutes."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"80\nCalories\n\n\n0g \nFat\n\n\n17g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699656541-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/P7JFrlUU19w3iY_-PrT33iLtw2M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5352615-chia-coconut-pudding-with-coconut-milk-Buckwheat-Queen-4x3-1-21f63206865841b480e600aa29262c3f.jpg"
@@ -3908,59 +4021,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237469/chia-coconut-pudding-with-coconut-milk/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Chia Coconut Pudding with Coconut Milk</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups sweetened coconut milk\n\n\n6 tablespoons unsweetened coconut milk\n\n\n1 tablespoon agave nectar, or more to taste\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon ground cinnamon\n\n\n1 pinch salt\n\n\n½ cup chia seeds\n\n\n½ cup diced fresh strawberries (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups sweetened coconut milk\n\n\n6 tablespoons unsweetened coconut milk\n\n\n1 tablespoon agave nectar, or more to taste\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon ground cinnamon\n\n\n1 pinch salt\n\n\n½ cup chia seeds\n\n\n½ cup diced fresh strawberries (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together sweetened and unsweetened coconut milks, agave nectar, vanilla extract, cinnamon, and salt in a bowl; stir in chia seeds. Allow mixture to soak until thickened, at least 20 minutes, or cover the bowl with plastic wrap and refrigerate overnight."},{"recipe_directions":"Stir pudding and top with strawberries."},{"recipe_directions":"You can substitute stevia or sugar for agave."},{"recipe_directions":"You can substitute milk, soy milk, or almond milk for coconut milk. However, this will change the flavor."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Desserts"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"243\nCalories\n\n\n22g \nFat\n\n\n11g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699656548-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/b36Jq7OgfK7QHDCt1efR9oTkRf8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/888014-f94dab3b95ce41ebad1fa04b5539f804.jpg"
@@ -3973,59 +4082,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14009/muesli/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Muesli</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n16 \n\n\nYield:\n8 cups"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 ½ cups rolled oats\n\n\n1 cup raisins\n\n\n½ cup toasted wheat germ\n\n\n½ cup wheat bran\n\n\n½ cup oat bran\n\n\n½ cup chopped walnuts\n\n\n¼ cup packed brown sugar\n\n\n¼ cup raw sunflower seeds"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 ½ cups rolled oats\n\n\n1 cup raisins\n\n\n½ cup toasted wheat germ\n\n\n½ cup wheat bran\n\n\n½ cup oat bran\n\n\n½ cup chopped walnuts\n\n\n¼ cup packed brown sugar\n\n\n¼ cup raw sunflower seeds'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine oats, raisins, wheat germ, wheat bran, oat bran, walnuts, brown sugar, and sunflower seeds in a large bowl; mix well. Store muesli in an airtight container at room temperature for up to 2 months."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"188\nCalories\n\n\n6g \nFat\n\n\n32g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699656558-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17093/everyday-cooking/vegan/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2loKy4FRj-mIRK09mQu37-ECZqU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/191885-vegan-pancakes-DDMFS-4x3-a9467f894f0b4599a1e188752d00fd6c.jpg"
@@ -4039,42 +4144,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/191885/vegan-pancakes/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Vegan Pancakes</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n3 \n\n\nYield:\n9 pancakes"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ cups all-purpose flour\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 ¼ cups water\n\n\n1 tablespoon oil"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups all-purpose flour\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 ¼ cups water\n\n\n1 tablespoon oil'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sift flour, sugar, baking powder, and salt into a large bowl; make a well in the center. Whisk together water and oil in a small bowl."},{"recipe_directions":"Pour oil and water into flour mixture."},{"recipe_directions":"Stir just until blended; mixture will be lumpy."},{"recipe_directions":"Heat a lightly oiled griddle over medium-high heat."},{"recipe_directions":"Drop batter by large spoonfuls onto the griddle. Cook until bubbles form and edges are dry. Flip, then cook until bottoms are browned, 1 to 2 minutes. Repeat with remaining batter."},{"recipe_directions":"Serve with berries."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"264\nCalories\n\n\n5g \nFat\n\n\n49g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>